--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15630" windowHeight="6495" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14880" windowHeight="6495" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="IterationOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -34,15 +35,9 @@
     <t>1</t>
   </si>
   <si>
-    <t>UserName:=yp.venkateswarlu@gmail.com</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Password:=YP@venky17</t>
-  </si>
-  <si>
     <t>TC11_VerifyCreateIssues</t>
   </si>
   <si>
@@ -76,18 +71,6 @@
     <t>RunRangeOfIterations</t>
   </si>
   <si>
-    <t>UserName:=yp.venkateswarlu@gmail.com</t>
-  </si>
-  <si>
-    <t>Password:=admin123</t>
-  </si>
-  <si>
-    <t>Password:=YP@venky17</t>
-  </si>
-  <si>
-    <t>URL:=https://app.techforce.ai</t>
-  </si>
-  <si>
     <t>TC05_VerifyRegisterApp</t>
   </si>
   <si>
@@ -103,12 +86,6 @@
     <t>UsersReport:=admin</t>
   </si>
   <si>
-    <t>UserName:=yp20@yopmail.com</t>
-  </si>
-  <si>
-    <t>Password:=yp</t>
-  </si>
-  <si>
     <t>FromDate:=02/01/2015</t>
   </si>
   <si>
@@ -172,9 +149,6 @@
     <t>SearchKeyword:=working</t>
   </si>
   <si>
-    <t>UpdateStatusCommand:=update status</t>
-  </si>
-  <si>
     <t>SearchIssueStatus:=3,3,10000,10108</t>
   </si>
   <si>
@@ -190,28 +164,37 @@
     <t>StandupCommand:=standup meeting</t>
   </si>
   <si>
-    <t>StandupSelectIssues:=RJ-8(bug)</t>
-  </si>
-  <si>
-    <t>StandupProgressPercentage:=78</t>
-  </si>
-  <si>
-    <t>StandupProgressDescription:=test</t>
-  </si>
-  <si>
-    <t>StandupTimeSpent:=3h</t>
+    <t>StandupProgressPercentage:=</t>
+  </si>
+  <si>
+    <t>StandupProgressDescription:=</t>
+  </si>
+  <si>
+    <t>StandupTimeSpent:=</t>
   </si>
   <si>
     <t>StandupSelectIssues:=</t>
   </si>
   <si>
-    <t>StandupProgressPercentage:=</t>
-  </si>
-  <si>
-    <t>StandupProgressDescription:=</t>
-  </si>
-  <si>
-    <t>StandupTimeSpent:=</t>
+    <t>UpdateStatusCommand:=null</t>
+  </si>
+  <si>
+    <t>UpdateStatusIssue:=null</t>
+  </si>
+  <si>
+    <t>UpdateStatusIssueStatus:=null</t>
+  </si>
+  <si>
+    <t>URL:=https://facebook.com</t>
+  </si>
+  <si>
+    <t>URL:=</t>
+  </si>
+  <si>
+    <t>UserName:=</t>
+  </si>
+  <si>
+    <t>Password:=</t>
   </si>
 </sst>
 </file>
@@ -343,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,6 +384,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH28"/>
+  <dimension ref="A1:AMI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -782,8 +766,8 @@
     <col min="1" max="1" style="22" width="42.7109375" collapsed="true"/>
     <col min="2" max="2" style="18" width="7.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="18" width="37.42578125" collapsed="true"/>
-    <col min="4" max="4" style="18" width="35.85546875" collapsed="true"/>
-    <col min="5" max="5" style="18" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="39.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="18" width="25.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="18" width="52.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="18" width="46.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="18" width="48.5703125" collapsed="true"/>
@@ -921,14 +905,14 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -939,16 +923,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -956,19 +940,19 @@
     </row>
     <row r="4" spans="1:115">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
+      <c r="C4" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -976,19 +960,19 @@
     </row>
     <row r="5" spans="1:115">
       <c r="A5" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
+      <c r="C5" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -996,77 +980,77 @@
     </row>
     <row r="6" spans="1:115">
       <c r="A6" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
+      <c r="C6" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:115">
       <c r="A7" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:115">
       <c r="A8" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1074,45 +1058,45 @@
     </row>
     <row r="9" spans="1:115">
       <c r="A9" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
+      <c r="C9" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:115">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1120,51 +1104,51 @@
     </row>
     <row r="11" spans="1:115">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
+      <c r="C11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:115">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
+      <c r="C12" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1172,134 +1156,138 @@
     </row>
     <row r="13" spans="1:115">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:115">
       <c r="A14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="I14" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:115">
       <c r="A15" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
+      <c r="C15" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:115">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>21</v>
+      <c r="C16" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="H16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="I16" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -1461,33 +1449,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11" display="UserName:=yp.venkateswarlu@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId12" display="Password:=YP@venky17"/>
-    <hyperlink ref="C9" r:id="rId13"/>
-    <hyperlink ref="C10:C14" r:id="rId14" display="URL:=https://app.techforce.ai"/>
-    <hyperlink ref="C15" r:id="rId15"/>
-    <hyperlink ref="D15" r:id="rId16" display="UserName:=yp.venkateswarlu@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId17" display="Password:=YP@venky17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="D16" r:id="rId19" display="UserName:=yp.venkateswarlu@gmail.com"/>
-    <hyperlink ref="E16" r:id="rId20" display="Password:=YP@venky17"/>
-    <hyperlink ref="C17" r:id="rId21"/>
-    <hyperlink ref="C14" r:id="rId22"/>
-    <hyperlink ref="D10:D13" r:id="rId23" display="UserName:=yp.venkateswarlu@gmail.com"/>
-    <hyperlink ref="E10:E13" r:id="rId24" display="Password:=YP@venky17"/>
-    <hyperlink ref="C7" r:id="rId25"/>
+    <hyperlink ref="C3:C17" r:id="rId2" display="URL:=https://app.development.techforce.ai"/>
+    <hyperlink ref="C13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId26"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1504,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="b">
         <f>TRUE()</f>
@@ -1513,7 +1479,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="b">
         <f>FALSE()</f>
@@ -1522,7 +1488,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="124">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -99,12 +99,6 @@
     <t>CreateSprintCommand:=create sprint</t>
   </si>
   <si>
-    <t>CreateSprintBoard:=abcd</t>
-  </si>
-  <si>
-    <t>CreateSprintName:=sprint name</t>
-  </si>
-  <si>
     <t>CreateSprintFromDate:=12/02/2012</t>
   </si>
   <si>
@@ -126,27 +120,12 @@
     <t>WorklogReportCommand:=get worklog report</t>
   </si>
   <si>
-    <t>UsersReport:=abcd</t>
-  </si>
-  <si>
-    <t>FromDate:=12/12/2012</t>
-  </si>
-  <si>
-    <t>ToDate:=12/12/2013</t>
-  </si>
-  <si>
     <t>TC92_VerifyWorklogReportByUser</t>
   </si>
   <si>
     <t>WorklogReportCommand:=get worklog report for venkatesh</t>
   </si>
   <si>
-    <t>FromDate:=12/12/2015</t>
-  </si>
-  <si>
-    <t>ToDate:=12/12/2017</t>
-  </si>
-  <si>
     <t>TC81_VerifyUpdateIssueStatus</t>
   </si>
   <si>
@@ -177,24 +156,9 @@
     <t>SearchKeyword:=framework</t>
   </si>
   <si>
-    <t>SearchIssueStatus:=2,3,1000</t>
-  </si>
-  <si>
-    <t>SearchIssueType:=1,3,2000,10000</t>
-  </si>
-  <si>
     <t>TC22_VerifySearchIssuesByAssignee</t>
   </si>
   <si>
-    <t>SearchIssueDeveloper:=12,300,1000</t>
-  </si>
-  <si>
-    <t>SearchIssueType:12,300,10000</t>
-  </si>
-  <si>
-    <t>SearchIssueStatus:=2,3,1001</t>
-  </si>
-  <si>
     <t>TC23_VerifySearchIssuesBySummaryAndAssignee</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>SearchIssuesCommand:=search Task for venkatesh</t>
   </si>
   <si>
-    <t>SearchIssueStatus:=3000,10000,44500</t>
-  </si>
-  <si>
     <t>TC131_VerifyMoveIssuesToSprint</t>
   </si>
   <si>
@@ -310,6 +271,132 @@
   </si>
   <si>
     <t>ProjectName:=MyProject1</t>
+  </si>
+  <si>
+    <t>TC61_VerifyStandupMeetingAddWorklogNoHindrancesNoBamdwidth</t>
+  </si>
+  <si>
+    <t>StandupCommand:=standup meeting</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=85</t>
+  </si>
+  <si>
+    <t>StandupProgressDescription:=enter standup meeting</t>
+  </si>
+  <si>
+    <t>StandupTimeSpent:=2h</t>
+  </si>
+  <si>
+    <t>SearchIssueType:=Feature,Bug,Task,Epic,Story,Sub-task</t>
+  </si>
+  <si>
+    <t>SearchIssueStatus:=3,10000,10101,10001,10107,10108</t>
+  </si>
+  <si>
+    <t>UserName:=yp.venkateswarlu@gmail.com</t>
+  </si>
+  <si>
+    <t>Password:=YP@venky17</t>
+  </si>
+  <si>
+    <t>SearchIssueDeveloper:=admin,vyalagala,hari,tborra,siva</t>
+  </si>
+  <si>
+    <t>SearchKeyword:=frame work</t>
+  </si>
+  <si>
+    <t>SearchIssueDeveloper:=admin,vyalagala,hari</t>
+  </si>
+  <si>
+    <t>SearchIssueStatus:=3,10000,10101,10001</t>
+  </si>
+  <si>
+    <t>SearchIssueType:=Feature,Bug,Task</t>
+  </si>
+  <si>
+    <t>WorklogReportFromDate:=12/12/2016</t>
+  </si>
+  <si>
+    <t>WorklogReportToDate:=12/12/2017</t>
+  </si>
+  <si>
+    <t>WorklogReportUsers:=admin,pchinni,skuraku,sravuri,vyalagala</t>
+  </si>
+  <si>
+    <t>CreateSprintBoard:=MY board</t>
+  </si>
+  <si>
+    <t>CreateSprintName:=My Sprint 1</t>
+  </si>
+  <si>
+    <t>TC54_VerifyCreateIssueForUserNoSprint</t>
+  </si>
+  <si>
+    <t>CreateIssueSummary:=Bug create</t>
+  </si>
+  <si>
+    <t>CreateIssuesCommand:=create bug for rahul</t>
+  </si>
+  <si>
+    <t>JiraURL:=https://id.atlassian.com/login?continue=https%3A%2F%2Fthontukuri.atlassian.net%2Flogin%3FredirectCount%3D1</t>
+  </si>
+  <si>
+    <t>JiraURL:=https://id.atlassian.com/login?continue=https%3A%2F%2Fthontukuri.atlassian.net%2Flogin%3FredirectCount%3D2</t>
+  </si>
+  <si>
+    <t>JiraURL:=https://id.atlassian.com/login?continue=https%3A%2F%2Fthontukuri.atlassian.net%2Flogin%3FredirectCount%3D3</t>
+  </si>
+  <si>
+    <t>TC62_VerifyStandupMeetingNoWorklogNoHindrancesNoBamdwidth</t>
+  </si>
+  <si>
+    <t>TC63_VerifyStandupMeetingAddWorklogNoHindrancesAddBandwidth</t>
+  </si>
+  <si>
+    <t>TC64_VerifyStandupMeetingNoWorklogNoHindrancesAddBandwidth</t>
+  </si>
+  <si>
+    <t>TC65_VerifyStandupMeetingAddWorklogAddHindrancesNoBandwidth</t>
+  </si>
+  <si>
+    <t>TC66_VerifyStandupMeetingNoWorklogAddHindrancesNoBandwidth</t>
+  </si>
+  <si>
+    <t>TC67_VerifyStandupMeetingAddWorklogAddHindrancesAddBandwidth</t>
+  </si>
+  <si>
+    <t>TC68_VerifyStandupMeetingNoWorklogAddHindrancesAddBandwidth</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=86</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=87</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=88</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=89</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=90</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=91</t>
+  </si>
+  <si>
+    <t>StandupProgressPercentage:=92</t>
+  </si>
+  <si>
+    <t>SandupBandwidthTime:=2h</t>
+  </si>
+  <si>
+    <t>StandupHindrances:=Problem</t>
+  </si>
+  <si>
+    <t>StandupSelectIssues:=TES-1(hello)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -461,12 +548,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -486,21 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -509,8 +594,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -533,13 +616,38 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,171 +1023,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH47"/>
+  <dimension ref="A1:AMH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.85546875" style="16" collapsed="1"/>
-    <col min="3" max="3" width="37.42578125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" style="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52" style="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="46.5703125" style="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="49.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.5703125" style="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.85546875" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="1022" width="8.28515625" style="16" collapsed="1"/>
-    <col min="1023" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" width="59.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.85546875" style="11" collapsed="1"/>
+    <col min="3" max="3" width="37.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52" style="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="46.5703125" style="11" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" style="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="49.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.5703125" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="39.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.140625" style="11" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="68" style="11" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="43.7109375" style="11" customWidth="1" collapsed="1"/>
+    <col min="17" max="1022" width="8.28515625" style="11" collapsed="1"/>
+    <col min="1023" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="13" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:115" s="31" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+      <c r="CA1" s="30"/>
+      <c r="CB1" s="30"/>
+      <c r="CC1" s="30"/>
+      <c r="CD1" s="30"/>
+      <c r="CE1" s="30"/>
+      <c r="CF1" s="30"/>
+      <c r="CG1" s="30"/>
+      <c r="CH1" s="30"/>
+      <c r="CI1" s="30"/>
+      <c r="CJ1" s="30"/>
+      <c r="CK1" s="30"/>
+      <c r="CL1" s="30"/>
+      <c r="CM1" s="30"/>
+      <c r="CN1" s="30"/>
+      <c r="CO1" s="30"/>
+      <c r="CP1" s="30"/>
+      <c r="CQ1" s="30"/>
+      <c r="CR1" s="30"/>
+      <c r="CS1" s="30"/>
+      <c r="CT1" s="30"/>
+      <c r="CU1" s="30"/>
+      <c r="CV1" s="30"/>
+      <c r="CW1" s="30"/>
+      <c r="CX1" s="30"/>
+      <c r="CY1" s="30"/>
+      <c r="CZ1" s="30"/>
+      <c r="DA1" s="30"/>
+      <c r="DB1" s="30"/>
+      <c r="DC1" s="30"/>
+      <c r="DD1" s="30"/>
+      <c r="DE1" s="30"/>
+      <c r="DF1" s="30"/>
+      <c r="DG1" s="30"/>
+      <c r="DH1" s="30"/>
+      <c r="DI1" s="30"/>
+      <c r="DJ1" s="30"/>
+      <c r="DK1" s="30"/>
     </row>
     <row r="2" spans="1:115">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:115">
       <c r="A3" s="4" t="s">
@@ -1095,11 +1206,11 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:115" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1132,7 +1243,7 @@
     </row>
     <row r="5" spans="1:115" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1141,56 +1252,56 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:115" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:115" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -1199,30 +1310,27 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:115" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -1231,54 +1339,58 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:115">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:115" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:115">
       <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1291,36 +1403,23 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:115">
       <c r="A11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -1332,36 +1431,45 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:115">
       <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -1373,36 +1481,45 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:115">
       <c r="A13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -1414,30 +1531,44 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:115">
       <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1450,29 +1581,38 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:115">
       <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1485,18 +1625,38 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:115">
       <c r="A16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1509,142 +1669,140 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="B20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>97</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>76</v>
+      <c r="B21" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
@@ -1659,424 +1817,701 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>78</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="B27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="I29" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="J29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="32"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKI2:AKI8 AAM2:AAM8 QQ2:QQ8 GU2:GU8 AKI29:AKI34 AAM29:AAM34 QQ29:QQ34 GU29:GU34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKI2:AKI9 AAM2:AAM9 QQ2:QQ9 GU2:GU9 AKI31:AKI36 AAM31:AAM36 QQ31:QQ36 GU31:GU36">
       <formula1>"roundtrip,oneway"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKJ2:AKJ8 AAN2:AAN8 QR2:QR8 GV2:GV8 AKJ29:AKJ34 AAN29:AAN34 QR29:QR34 GV29:GV34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKJ2:AKJ9 AAN2:AAN9 QR2:QR9 GV2:GV9 AKJ31:AKJ36 AAN31:AAN36 QR31:QR36 GV31:GV36">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKN2:AKN8 AKK2:AKK8 AAR2:AAR8 AAO2:AAO8 QV2:QV8 QS2:QS8 GZ2:GZ8 GW2:GW8 QV29:QV34 QS29:QS34 GZ29:GZ34 GW29:GW34 AKN29:AKN34 AKK29:AKK34 AAR29:AAR34 AAO29:AAO34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKN2:AKN9 AKK2:AKK9 AAR2:AAR9 AAO2:AAO9 QV2:QV9 QS2:QS9 GZ2:GZ9 GW2:GW9 QV31:QV36 QS31:QS36 GZ31:GZ36 GW31:GW36 AKN31:AKN36 AKK31:AKK36 AAR31:AAR36 AAO31:AAO36">
       <formula1>"Acapulco,Frankfurt,London,New York,Paris,Portland,San Francisco,Seattle,Sydney,Zurich"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKO2:AKO8 AKL2:AKL8 AAS2:AAS8 AAP2:AAP8 QW2:QW8 QT2:QT8 HA2:HA8 GX2:GX8 QW29:QW34 QT29:QT34 HA29:HA34 GX29:GX34 AKO29:AKO34 AKL29:AKL34 AAS29:AAS34 AAP29:AAP34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKO2:AKO9 AKL2:AKL9 AAS2:AAS9 AAP2:AAP9 QW2:QW9 QT2:QT9 HA2:HA9 GX2:GX9 QW31:QW36 QT31:QT36 HA31:HA36 GX31:GX36 AKO31:AKO36 AKL31:AKL36 AAS31:AAS36 AAP31:AAP36">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKP2:AKP8 AKM2:AKM8 AAT2:AAT8 AAQ2:AAQ8 QX2:QX8 QU2:QU8 HB2:HB8 GY2:GY8 QX29:QX34 QU29:QU34 HB29:HB34 GY29:GY34 AKP29:AKP34 AKM29:AKM34 AAT29:AAT34 AAQ29:AAQ34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKP2:AKP9 AKM2:AKM9 AAT2:AAT9 AAQ2:AAQ9 QX2:QX9 QU2:QU9 HB2:HB9 GY2:GY9 QX31:QX36 QU31:QU36 HB31:HB36 GY31:GY36 AKP31:AKP36 AKM31:AKM36 AAT31:AAT36 AAQ31:AAQ36">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKQ2:AKQ8 AAU2:AAU8 QY2:QY8 HC2:HC8 AKQ29:AKQ34 AAU29:AAU34 QY29:QY34 HC29:HC34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKQ2:AKQ9 AAU2:AAU9 QY2:QY9 HC2:HC9 AKQ31:AKQ36 AAU31:AAU36 QY31:QY36 HC31:HC36">
       <formula1>"Economy class,Business class,First class"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKR2:AKR8 AAV2:AAV8 QZ2:QZ8 HD2:HD8 AKR29:AKR34 AAV29:AAV34 QZ29:QZ34 HD29:HD34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKR2:AKR9 AAV2:AAV9 QZ2:QZ9 HD2:HD9 AKR31:AKR36 AAV31:AAV36 QZ31:QZ36 HD31:HD36">
       <formula1>"No Preference,Blue Skies Airlines,Unified Airlines,Pangea Airlines"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKS2:AKS8 AAW2:AAW8 RA2:RA8 HE2:HE8 AKS29:AKS34 AAW29:AAW34 RA29:RA34 HE29:HE34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKS2:AKS9 AAW2:AAW9 RA2:RA9 HE2:HE9 AKS31:AKS36 AAW31:AAW36 RA31:RA36 HE31:HE36">
       <formula1>"360,361,362,363"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKT2:AKT8 AAX2:AAX8 RB2:RB8 HF2:HF8 AKT29:AKT34 AAX29:AAX34 RB29:RB34 HF29:HF34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKT2:AKT9 AAX2:AAX9 RB2:RB9 HF2:HF9 AKT31:AKT36 AAX31:AAX36 RB31:RB36 HF31:HF36">
       <formula1>"630,631,632,633"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKW2:AKW8 ABA2:ABA8 RE2:RE8 HI2:HI8 AKW29:AKW34 ABA29:ABA34 RE29:RE34 HI29:HI34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKW2:AKW9 ABA2:ABA9 RE2:RE9 HI2:HI9 AKW31:AKW36 ABA31:ABA36 RE31:RE36 HI31:HI36">
       <formula1>"No preference,Bland,Diabetic,Hindu,Kosher,Low Calorie,Low Cholesterol,Low Sodium,Muslim,Vegetarian"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKX2:AKX8 ABB2:ABB8 RF2:RF8 HJ2:HJ8 AKX29:AKX34 ABB29:ABB34 RF29:RF34 HJ29:HJ34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKX2:AKX9 ABB2:ABB9 RF2:RF9 HJ2:HJ9 AKX31:AKX36 ABB31:ABB36 RF31:RF36 HJ31:HJ36">
       <formula1>"American Express,MasterCard,Visa,Discover,Diners Club,Carte Blanche"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKZ2:AKZ8 ABD2:ABD8 RH2:RH8 HL2:HL8 AKZ29:AKZ34 ABD29:ABD34 RH29:RH34 HL29:HL34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AKZ2:AKZ9 ABD2:ABD9 RH2:RH9 HL2:HL9 AKZ31:AKZ36 ABD31:ABD36 RH31:RH36 HL31:HL36">
       <formula1>"None,01,02,03,04,05,06,07,08,09,10,11,12"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ALA2:ALA8 ABE2:ABE8 RI2:RI8 HM2:HM8 ALA29:ALA34 ABE29:ABE34 RI29:RI34 HM29:HM34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ALA2:ALA9 ABE2:ABE9 RI2:RI9 HM2:HM9 ALA31:ALA36 ABE31:ABE36 RI31:RI36 HM31:HM36">
       <formula1>"None,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ALN2:ALN8 ALI2:ALI8 ABR2:ABR8 ABM2:ABM8 RV2:RV8 RQ2:RQ8 HZ2:HZ8 HU2:HU8 RV29:RV34 RQ29:RQ34 HZ29:HZ34 HU29:HU34 ALN29:ALN34 ALI29:ALI34 ABR29:ABR34 ABM29:ABM34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ALN2:ALN9 ALI2:ALI9 ABR2:ABR9 ABM2:ABM9 RV2:RV9 RQ2:RQ9 HZ2:HZ9 HU2:HU9 RV31:RV36 RQ31:RQ36 HZ31:HZ36 HU31:HU36 ALN31:ALN36 ALI31:ALI36 ABR31:ABR36 ABM31:ABM36">
       <formula1>"UNITED STATES,HOWLAND ISLAND,HUNGARY,ICELAND,INDIA,INDONESIA,IRELAND,ISRAEL,ITALY"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1"/>
-    <hyperlink ref="C18" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="C25" r:id="rId4"/>
     <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C24" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C26" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
